--- a/data/trans_bre/P14B23-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P14B23-Estudios-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.095074008534194</v>
+        <v>7.340589504412</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.267867459419583</v>
+        <v>7.349366164544498</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.166667185260568</v>
+        <v>3.091414324934637</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>1.214197172315454</v>
+        <v>1.237529638243071</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1.615583439752353</v>
+        <v>1.623605448857391</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3411320922809504</v>
+        <v>0.3546423197962126</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.06610628186095</v>
+        <v>11.87596568873432</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.13213309884758</v>
+        <v>12.43766183577693</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.693189513485986</v>
+        <v>8.725937371081706</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3.367582719043568</v>
+        <v>3.320643534414243</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4.871365024350907</v>
+        <v>5.114380811433147</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.473595166718663</v>
+        <v>1.543265583975258</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>3.1313519169076</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4.098969945902698</v>
+        <v>4.098969945902697</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.637494420900391</v>
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.000212861470756</v>
+        <v>1.941561940471976</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.081726933481038</v>
+        <v>1.918047168175708</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.891723173540984</v>
+        <v>2.811674200837177</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.7778878686930418</v>
+        <v>0.7489484568953076</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8219218054166147</v>
+        <v>0.8058328086014156</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7530405580065003</v>
+        <v>0.747587347324642</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.521915411381127</v>
+        <v>4.377059590007578</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.468693230946707</v>
+        <v>4.366453725509883</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.329998497020545</v>
+        <v>5.266606661802596</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.959748355935631</v>
+        <v>3.007860966481414</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.009219145183422</v>
+        <v>3.145321252072195</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.059187209540874</v>
+        <v>2.09671291539129</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>1.070866512496067</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.022216248793591</v>
+        <v>1.022216248793592</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>2.100086361133193</v>
@@ -791,7 +791,7 @@
         <v>2.02776323107575</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3239095773994384</v>
+        <v>0.3239095773994387</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.1848666639927719</v>
+        <v>-0.1741139237103408</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.06675377712375964</v>
+        <v>-0.1444378233902776</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.147603308986213</v>
+        <v>-1.083345498435726</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.7301060119329918</v>
+        <v>-0.6616081214579654</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3467715000590538</v>
+        <v>-0.4451269788936488</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2802257593321595</v>
+        <v>-0.2756484172976139</v>
       </c>
     </row>
     <row r="12">
@@ -828,20 +828,20 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.160324585120177</v>
+        <v>3.023724232365049</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.327876259368086</v>
+        <v>2.578994074503452</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.985186063419866</v>
+        <v>3.055511638150343</v>
       </c>
       <c r="F12" s="6" t="inlineStr"/>
       <c r="G12" s="6" t="n">
-        <v>12.11037171096083</v>
+        <v>17.82143322243131</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.367132873052687</v>
+        <v>1.4432447315011</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.487603993410259</v>
+        <v>4.450713286156904</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.705474478034771</v>
+        <v>3.720419335192691</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.171584722854543</v>
+        <v>3.20754205281498</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1.466629181980114</v>
+        <v>1.454236678799474</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1.585371739046921</v>
+        <v>1.607078155757429</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7218076114170131</v>
+        <v>0.7509609666725789</v>
       </c>
     </row>
     <row r="15">
@@ -908,22 +908,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.611662187350585</v>
+        <v>6.585097909407307</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.723872924082948</v>
+        <v>5.843413682386591</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.294887559891963</v>
+        <v>5.316583473369755</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.11284908195056</v>
+        <v>3.157957348252757</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.583549448880025</v>
+        <v>3.573072869015982</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.610006995386583</v>
+        <v>1.608750250426625</v>
       </c>
     </row>
     <row r="16">
